--- a/Budget KIIWI Projekt v3-Defined.xlsx
+++ b/Budget KIIWI Projekt v3-Defined.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Number of 
 devices (part)</t>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>ToT</t>
+  </si>
+  <si>
+    <t>Farnel</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -652,9 +655,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,18 +673,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -947,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,12 +971,12 @@
     <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="13" width="14.75" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="43" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
     <col min="19" max="19" width="16.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="17.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>55</v>
       </c>
@@ -981,20 +989,20 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="61"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="38" t="s">
         <v>64</v>
       </c>
@@ -1017,8 +1025,14 @@
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1055,7 +1069,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -1135,7 +1149,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -1169,7 +1183,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -1213,7 +1227,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -1246,8 +1260,9 @@
       </c>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="66"/>
+    </row>
+    <row r="8" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -1289,8 +1304,9 @@
       <c r="Q8" s="33"/>
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="63"/>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -1327,7 +1343,7 @@
       <c r="L9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="58">
         <v>2405</v>
       </c>
       <c r="N9" s="16" t="s">
@@ -1347,8 +1363,10 @@
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" s="30" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+    </row>
+    <row r="10" spans="1:22" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -1399,8 +1417,10 @@
       </c>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>6143.01</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="55">
+      <c r="H11" s="54">
         <v>6138.02</v>
       </c>
       <c r="I11" s="13">
@@ -1439,12 +1459,13 @@
         <v>45</v>
       </c>
       <c r="Q11" s="39"/>
-    </row>
-    <row r="12" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="63"/>
+    </row>
+    <row r="12" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="27">
@@ -1453,7 +1474,7 @@
       <c r="D12" s="27">
         <v>1141.21</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>1369.452</v>
       </c>
       <c r="F12" s="28">
@@ -1466,7 +1487,7 @@
         <v>1364.87</v>
       </c>
       <c r="J12" s="29"/>
-      <c r="M12" s="57">
+      <c r="M12" s="56">
         <v>1369.452</v>
       </c>
       <c r="N12" s="29" t="s">
@@ -1485,7 +1506,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -1499,7 +1520,7 @@
         <v>697.8</v>
       </c>
       <c r="E13" s="21">
-        <v>348.9</v>
+        <v>258.01</v>
       </c>
       <c r="F13" s="13">
         <v>285</v>
@@ -1507,17 +1528,17 @@
       <c r="G13" s="13">
         <v>283.99</v>
       </c>
-      <c r="H13" s="21">
-        <v>697.8</v>
-      </c>
-      <c r="I13" s="51">
+      <c r="H13" s="65">
+        <v>570.1</v>
+      </c>
+      <c r="I13" s="64">
         <v>570</v>
       </c>
       <c r="J13" s="13">
         <v>567.98</v>
       </c>
       <c r="M13" s="23">
-        <v>570</v>
+        <v>570.01</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>9</v>
@@ -1531,12 +1552,13 @@
       <c r="Q13" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="63"/>
+    </row>
+    <row r="14" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="27">
@@ -1559,7 +1581,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1579,7 +1601,7 @@
         <v>95.8</v>
       </c>
       <c r="G15" s="13">
-        <v>97.64</v>
+        <v>90.94</v>
       </c>
       <c r="H15" s="21">
         <v>232.57</v>
@@ -1588,15 +1610,15 @@
         <v>191.6</v>
       </c>
       <c r="J15" s="13">
-        <v>183.38</v>
-      </c>
-      <c r="K15" s="54" t="s">
+        <v>169.98</v>
+      </c>
+      <c r="K15" s="53" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="51">
         <v>166.9</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -1611,8 +1633,9 @@
       <c r="Q15" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" s="63"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1629,7 +1652,7 @@
       <c r="J16" s="6"/>
       <c r="M16" s="23">
         <f>SUM(M3:M14)</f>
-        <v>35708.623999999996</v>
+        <v>35708.633999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1641,7 +1664,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="52"/>
       <c r="N17" t="s">
         <v>28</v>
       </c>
@@ -1661,7 +1684,7 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="60" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1669,13 +1692,13 @@
       <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="36" t="s">
         <v>56</v>
       </c>
@@ -1684,25 +1707,25 @@
       <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="59">
         <v>3</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>

--- a/Budget KIIWI Projekt v3-Defined.xlsx
+++ b/Budget KIIWI Projekt v3-Defined.xlsx
@@ -679,12 +679,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -693,6 +687,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -957,8 +957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,20 +992,20 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="38" t="s">
         <v>64</v>
       </c>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
@@ -1304,7 +1307,7 @@
       <c r="Q8" s="33"/>
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="61"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -1363,8 +1366,8 @@
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
@@ -1417,8 +1420,8 @@
       </c>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -1459,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="Q11" s="39"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="61"/>
     </row>
     <row r="12" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
@@ -1528,10 +1531,10 @@
       <c r="G13" s="13">
         <v>283.99</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="63">
         <v>570.1</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="62">
         <v>570</v>
       </c>
       <c r="J13" s="13">
@@ -1552,7 +1555,7 @@
       <c r="Q13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="63"/>
+      <c r="V13" s="61"/>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
@@ -1633,7 +1636,7 @@
       <c r="Q15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V15" s="63"/>
+      <c r="V15" s="61"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1692,13 +1695,13 @@
       <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="36" t="s">
         <v>56</v>
       </c>
@@ -1707,25 +1710,25 @@
       <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
         <v>3</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
